--- a/documentation/Metadata Form, Item Type, Subjects.xlsx
+++ b/documentation/Metadata Form, Item Type, Subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\British Library\bl github group\bl_github_clones\idp-data-issues\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF4748-0D67-4A5A-A2C7-D9C09E20CDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CC49C-C8A9-4DA7-8E20-1B63BF215445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1305" windowWidth="32460" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8316" yWindow="5760" windowWidth="17328" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="453">
   <si>
     <t>English</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>REMOVE</t>
+  </si>
+  <si>
+    <t>Need a mechanism for DELETING records - suggest using 4D SQL somehow supplied by batch</t>
   </si>
 </sst>
 </file>
@@ -1941,24 +1944,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
-    <col min="3" max="5" width="16.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="3"/>
-    <col min="9" max="9" width="30.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="12.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="16.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3"/>
+    <col min="9" max="9" width="30.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2089,7 @@
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2378,7 +2381,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2428,7 +2431,7 @@
       </c>
       <c r="J19" s="15"/>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2452,7 +2455,7 @@
       </c>
       <c r="J20" s="15"/>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -2556,7 +2559,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2588,7 +2591,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -2618,7 +2621,7 @@
       </c>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -2760,7 +2763,7 @@
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
@@ -3130,7 +3133,7 @@
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>77</v>
       </c>
@@ -3152,9 +3155,11 @@
       <c r="I48" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J48" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>77</v>
       </c>
@@ -3430,7 +3435,7 @@
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>91</v>
       </c>
@@ -3450,7 +3455,7 @@
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
     </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>91</v>
       </c>
@@ -3472,7 +3477,7 @@
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>91</v>
       </c>
@@ -3494,7 +3499,7 @@
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
     </row>
-    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>93</v>
       </c>
@@ -3518,7 +3523,7 @@
       </c>
       <c r="J64" s="15"/>
     </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -3540,7 +3545,7 @@
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
     </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -3584,7 +3589,7 @@
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
     </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>100</v>
       </c>
@@ -3606,7 +3611,7 @@
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
     </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>100</v>
       </c>
@@ -3628,7 +3633,7 @@
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>100</v>
       </c>
@@ -3650,7 +3655,7 @@
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>102</v>
       </c>
@@ -3672,7 +3677,7 @@
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -3694,7 +3699,7 @@
       </c>
       <c r="J72" s="15"/>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>104</v>
       </c>
@@ -3716,7 +3721,7 @@
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>106</v>
       </c>
@@ -3746,7 +3751,7 @@
       </c>
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>106</v>
       </c>
@@ -3774,7 +3779,7 @@
       <c r="I75" s="14"/>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -3796,7 +3801,7 @@
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>110</v>
       </c>
@@ -3826,7 +3831,7 @@
       </c>
       <c r="J77" s="15"/>
     </row>
-    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>114</v>
       </c>
@@ -3858,7 +3863,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>116</v>
       </c>
@@ -3888,7 +3893,7 @@
       </c>
       <c r="J79" s="15"/>
     </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>118</v>
       </c>
@@ -3918,7 +3923,7 @@
       </c>
       <c r="J80" s="15"/>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>120</v>
       </c>
@@ -4008,7 +4013,7 @@
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
     </row>
-    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>126</v>
       </c>
@@ -4060,7 +4065,7 @@
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
     </row>
-    <row r="87" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>130</v>
       </c>
@@ -4318,7 +4323,7 @@
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
     </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>140</v>
       </c>
@@ -4346,7 +4351,7 @@
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
     </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>142</v>
       </c>
@@ -4394,7 +4399,7 @@
       </c>
       <c r="J100" s="15"/>
     </row>
-    <row r="101" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>144</v>
       </c>
@@ -4424,7 +4429,7 @@
       </c>
       <c r="J101" s="15"/>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>146</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
     </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>146</v>
       </c>
@@ -4730,7 +4735,7 @@
       <c r="I114" s="15"/>
       <c r="J114" s="15"/>
     </row>
-    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>168</v>
       </c>
@@ -4760,7 +4765,7 @@
       </c>
       <c r="J115" s="15"/>
     </row>
-    <row r="116" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>170</v>
       </c>
@@ -4790,7 +4795,7 @@
       </c>
       <c r="J116" s="15"/>
     </row>
-    <row r="117" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>172</v>
       </c>
@@ -4842,7 +4847,7 @@
       <c r="I118" s="15"/>
       <c r="J118" s="15"/>
     </row>
-    <row r="119" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>176</v>
       </c>
@@ -4872,7 +4877,7 @@
       </c>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>178</v>
       </c>
@@ -4902,7 +4907,7 @@
       </c>
       <c r="J120" s="15"/>
     </row>
-    <row r="121" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>180</v>
       </c>
@@ -4928,7 +4933,7 @@
       </c>
       <c r="J121" s="15"/>
     </row>
-    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>182</v>
       </c>
@@ -5254,7 +5259,7 @@
       <c r="I135" s="15"/>
       <c r="J135" s="15"/>
     </row>
-    <row r="136" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>198</v>
       </c>
@@ -5282,7 +5287,7 @@
       </c>
       <c r="J136" s="15"/>
     </row>
-    <row r="137" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>198</v>
       </c>
@@ -5404,7 +5409,7 @@
       <c r="I141" s="15"/>
       <c r="J141" s="15"/>
     </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>206</v>
       </c>
@@ -5448,7 +5453,7 @@
       <c r="I143" s="15"/>
       <c r="J143" s="15"/>
     </row>
-    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>210</v>
       </c>
@@ -5470,7 +5475,7 @@
       <c r="I144" s="15"/>
       <c r="J144" s="15"/>
     </row>
-    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>212</v>
       </c>
@@ -5492,7 +5497,7 @@
       <c r="I145" s="15"/>
       <c r="J145" s="15"/>
     </row>
-    <row r="146" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>212</v>
       </c>
@@ -5586,7 +5591,7 @@
       <c r="I149" s="15"/>
       <c r="J149" s="15"/>
     </row>
-    <row r="150" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>218</v>
       </c>
@@ -5612,7 +5617,7 @@
       <c r="I150" s="15"/>
       <c r="J150" s="15"/>
     </row>
-    <row r="151" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>220</v>
       </c>
@@ -5770,7 +5775,7 @@
       <c r="I157" s="15"/>
       <c r="J157" s="15"/>
     </row>
-    <row r="158" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>227</v>
       </c>
@@ -5800,7 +5805,7 @@
       </c>
       <c r="J158" s="15"/>
     </row>
-    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>227</v>
       </c>
@@ -5830,7 +5835,7 @@
       </c>
       <c r="J159" s="15"/>
     </row>
-    <row r="160" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>229</v>
       </c>
@@ -5860,7 +5865,7 @@
       </c>
       <c r="J160" s="15"/>
     </row>
-    <row r="161" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>229</v>
       </c>
@@ -5890,7 +5895,7 @@
       </c>
       <c r="J161" s="15"/>
     </row>
-    <row r="162" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>229</v>
       </c>
@@ -5920,7 +5925,7 @@
       </c>
       <c r="J162" s="15"/>
     </row>
-    <row r="163" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>231</v>
       </c>
@@ -5950,7 +5955,7 @@
       </c>
       <c r="J163" s="15"/>
     </row>
-    <row r="164" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>231</v>
       </c>
@@ -5980,7 +5985,7 @@
       </c>
       <c r="J164" s="15"/>
     </row>
-    <row r="165" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>233</v>
       </c>
@@ -6002,7 +6007,7 @@
       </c>
       <c r="J165" s="15"/>
     </row>
-    <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>233</v>
       </c>
@@ -6024,7 +6029,7 @@
       <c r="I166" s="15"/>
       <c r="J166" s="15"/>
     </row>
-    <row r="167" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>233</v>
       </c>
@@ -6046,7 +6051,7 @@
       <c r="I167" s="15"/>
       <c r="J167" s="15"/>
     </row>
-    <row r="168" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>233</v>
       </c>
@@ -6068,7 +6073,7 @@
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
     </row>
-    <row r="169" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>233</v>
       </c>
@@ -6090,7 +6095,7 @@
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
     </row>
-    <row r="170" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>233</v>
       </c>
@@ -6112,7 +6117,7 @@
       <c r="I170" s="15"/>
       <c r="J170" s="15"/>
     </row>
-    <row r="171" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>233</v>
       </c>
@@ -6134,7 +6139,7 @@
       <c r="I171" s="15"/>
       <c r="J171" s="15"/>
     </row>
-    <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>233</v>
       </c>
@@ -6156,7 +6161,7 @@
       <c r="I172" s="15"/>
       <c r="J172" s="15"/>
     </row>
-    <row r="173" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>233</v>
       </c>
@@ -6178,7 +6183,7 @@
       <c r="I173" s="15"/>
       <c r="J173" s="15"/>
     </row>
-    <row r="174" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>233</v>
       </c>
@@ -6200,7 +6205,7 @@
       <c r="I174" s="15"/>
       <c r="J174" s="15"/>
     </row>
-    <row r="175" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>233</v>
       </c>
@@ -6222,7 +6227,7 @@
       <c r="I175" s="15"/>
       <c r="J175" s="15"/>
     </row>
-    <row r="176" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>233</v>
       </c>
@@ -6244,7 +6249,7 @@
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
     </row>
-    <row r="177" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>233</v>
       </c>
@@ -6420,7 +6425,7 @@
       <c r="I184" s="15"/>
       <c r="J184" s="15"/>
     </row>
-    <row r="185" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>246</v>
       </c>
@@ -6446,7 +6451,7 @@
       </c>
       <c r="J185" s="15"/>
     </row>
-    <row r="186" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>9</v>
       </c>
@@ -6522,7 +6527,7 @@
       <c r="I188" s="15"/>
       <c r="J188" s="15"/>
     </row>
-    <row r="189" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>252</v>
       </c>
@@ -6794,7 +6799,7 @@
       <c r="I200" s="15"/>
       <c r="J200" s="15"/>
     </row>
-    <row r="201" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>260</v>
       </c>
@@ -6860,7 +6865,7 @@
       <c r="I203" s="15"/>
       <c r="J203" s="15"/>
     </row>
-    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>266</v>
       </c>
@@ -6880,7 +6885,7 @@
       <c r="I204" s="15"/>
       <c r="J204" s="15"/>
     </row>
-    <row r="205" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>266</v>
       </c>
@@ -6902,7 +6907,7 @@
       <c r="I205" s="15"/>
       <c r="J205" s="15"/>
     </row>
-    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>266</v>
       </c>
@@ -6924,7 +6929,7 @@
       <c r="I206" s="15"/>
       <c r="J206" s="15"/>
     </row>
-    <row r="207" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>266</v>
       </c>
@@ -6946,7 +6951,7 @@
       <c r="I207" s="15"/>
       <c r="J207" s="15"/>
     </row>
-    <row r="208" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>266</v>
       </c>
@@ -6968,7 +6973,7 @@
       <c r="I208" s="15"/>
       <c r="J208" s="15"/>
     </row>
-    <row r="209" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>266</v>
       </c>
@@ -6990,7 +6995,7 @@
       <c r="I209" s="15"/>
       <c r="J209" s="15"/>
     </row>
-    <row r="210" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>266</v>
       </c>
@@ -7064,7 +7069,7 @@
       <c r="I212" s="15"/>
       <c r="J212" s="15"/>
     </row>
-    <row r="213" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>274</v>
       </c>
@@ -7090,7 +7095,7 @@
       <c r="I213" s="15"/>
       <c r="J213" s="15"/>
     </row>
-    <row r="214" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>276</v>
       </c>
@@ -7116,7 +7121,7 @@
       <c r="I214" s="15"/>
       <c r="J214" s="15"/>
     </row>
-    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>278</v>
       </c>
@@ -7164,7 +7169,7 @@
       <c r="I216" s="15"/>
       <c r="J216" s="15"/>
     </row>
-    <row r="217" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>282</v>
       </c>
@@ -8278,7 +8283,7 @@
       <c r="I266" s="15"/>
       <c r="J266" s="15"/>
     </row>
-    <row r="267" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>311</v>
       </c>
@@ -8308,7 +8313,7 @@
       </c>
       <c r="J267" s="15"/>
     </row>
-    <row r="268" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>311</v>
       </c>
@@ -8580,7 +8585,7 @@
       <c r="I279" s="15"/>
       <c r="J279" s="15"/>
     </row>
-    <row r="280" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>321</v>
       </c>
@@ -8610,7 +8615,7 @@
       </c>
       <c r="J280" s="15"/>
     </row>
-    <row r="281" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>323</v>
       </c>
@@ -8640,7 +8645,7 @@
       </c>
       <c r="J281" s="15"/>
     </row>
-    <row r="282" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>325</v>
       </c>
@@ -8692,7 +8697,7 @@
       <c r="I283" s="15"/>
       <c r="J283" s="15"/>
     </row>
-    <row r="284" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>329</v>
       </c>
@@ -8722,7 +8727,7 @@
       </c>
       <c r="J284" s="15"/>
     </row>
-    <row r="285" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>331</v>
       </c>
@@ -8772,7 +8777,7 @@
       </c>
       <c r="J286" s="15"/>
     </row>
-    <row r="287" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>333</v>
       </c>
@@ -8796,7 +8801,7 @@
       </c>
       <c r="J287" s="15"/>
     </row>
-    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>333</v>
       </c>
@@ -8822,7 +8827,7 @@
       </c>
       <c r="J288" s="15"/>
     </row>
-    <row r="289" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>335</v>
       </c>
@@ -8846,7 +8851,7 @@
       </c>
       <c r="J289" s="15"/>
     </row>
-    <row r="290" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>335</v>
       </c>
@@ -8870,7 +8875,7 @@
       </c>
       <c r="J290" s="15"/>
     </row>
-    <row r="291" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>335</v>
       </c>
@@ -8894,7 +8899,7 @@
       </c>
       <c r="J291" s="15"/>
     </row>
-    <row r="292" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>335</v>
       </c>
@@ -8918,7 +8923,7 @@
       </c>
       <c r="J292" s="15"/>
     </row>
-    <row r="293" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>335</v>
       </c>
@@ -8942,7 +8947,7 @@
       </c>
       <c r="J293" s="15"/>
     </row>
-    <row r="294" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>335</v>
       </c>
@@ -8966,7 +8971,7 @@
       </c>
       <c r="J294" s="15"/>
     </row>
-    <row r="295" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>335</v>
       </c>
@@ -8990,7 +8995,7 @@
       </c>
       <c r="J295" s="15"/>
     </row>
-    <row r="296" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>335</v>
       </c>
@@ -9044,7 +9049,7 @@
       </c>
       <c r="J297" s="15"/>
     </row>
-    <row r="298" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>339</v>
       </c>
@@ -9074,7 +9079,7 @@
       </c>
       <c r="J298" s="15"/>
     </row>
-    <row r="299" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>341</v>
       </c>
@@ -9134,7 +9139,7 @@
       </c>
       <c r="J300" s="15"/>
     </row>
-    <row r="301" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>345</v>
       </c>
@@ -9208,7 +9213,7 @@
       <c r="I303" s="15"/>
       <c r="J303" s="15"/>
     </row>
-    <row r="304" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>349</v>
       </c>
@@ -9236,7 +9241,7 @@
       </c>
       <c r="J304" s="15"/>
     </row>
-    <row r="305" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>351</v>
       </c>
@@ -9260,7 +9265,7 @@
       </c>
       <c r="J305" s="15"/>
     </row>
-    <row r="306" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>351</v>
       </c>
@@ -9352,7 +9357,7 @@
       </c>
       <c r="J309" s="15"/>
     </row>
-    <row r="310" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>357</v>
       </c>
@@ -9382,7 +9387,7 @@
       </c>
       <c r="J310" s="15"/>
     </row>
-    <row r="311" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>359</v>
       </c>
@@ -9412,7 +9417,7 @@
       </c>
       <c r="J311" s="15"/>
     </row>
-    <row r="312" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>361</v>
       </c>
@@ -9442,7 +9447,7 @@
       </c>
       <c r="J312" s="15"/>
     </row>
-    <row r="313" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>363</v>
       </c>
@@ -9472,7 +9477,7 @@
       </c>
       <c r="J313" s="15"/>
     </row>
-    <row r="314" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>365</v>
       </c>
@@ -9759,13 +9764,13 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
@@ -9776,7 +9781,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>139</v>
       </c>
@@ -9784,1040 +9789,1040 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326"/>
     </row>
   </sheetData>

--- a/documentation/Metadata Form, Item Type, Subjects.xlsx
+++ b/documentation/Metadata Form, Item Type, Subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\British Library\bl github group\bl_github_clones\idp-data-issues\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2CC49C-C8A9-4DA7-8E20-1B63BF215445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31CCF8-3C29-40A7-B6D2-535471252837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8316" yWindow="5760" windowWidth="17328" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1872" yWindow="5388" windowWidth="11796" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="461">
   <si>
     <t>English</t>
   </si>
@@ -1234,9 +1234,6 @@
     <t>Item already is already assoicated to this form. Can we delete 'elliptical tablet' as a form?</t>
   </si>
   <si>
-    <t xml:space="preserve">Do not reassign. Can we delete this FORM and make it a subject (as in 'flood') perhaps? </t>
-  </si>
-  <si>
     <t>Issue of images not displaying; Can we delete this FORM? 'vehicle' could be added to 'Subjects' or to the title field</t>
   </si>
   <si>
@@ -1357,9 +1354,6 @@
     <t>Suggest: modify in batch on BL instance (might lose change) - and later send batch files to partners?. List of other institutions not hosted by us: MG, AKU, SF, BNF, INST001961, see separate tab List of inst…</t>
   </si>
   <si>
-    <t>Don’t think can DELETE in batch. Manual delete possible via housekeeping?</t>
-  </si>
-  <si>
     <t>ditto</t>
   </si>
   <si>
@@ -1369,9 +1363,6 @@
     <t>Another manual delete - but AKU is hosted bt German site. So sync might overwrite.</t>
   </si>
   <si>
-    <t>Institute id INST001961 needs to be batch modified to MG? Hosted by BNF though.</t>
-  </si>
-  <si>
     <t>MG (hosted BNF)</t>
   </si>
   <si>
@@ -1388,13 +1379,63 @@
   </si>
   <si>
     <t>Need a mechanism for DELETING records - suggest using 4D SQL somehow supplied by batch</t>
+  </si>
+  <si>
+    <t>Might not be corrected on Dev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Do not reassign.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Can we delete this FORM and make it a subject (as in 'flood') perhaps? </t>
+    </r>
+  </si>
+  <si>
+    <t>Institute id INST001961 needs to be batch modified to MG? Hosted by BNF though. (There are also numerous blank Institute Id at least some of which should be MG). Let us aim to set up batch mod files that can be reapplied by BNF to 'their' data. (Problem of deletion though).</t>
+  </si>
+  <si>
+    <t>Why no images?</t>
+  </si>
+  <si>
+    <t>Don’t think can DELETE in batch. Manual delete possible via housekeeping? Otherwise new mechanism? But problem is want to be able to do this for non-BL items such as BNF. How can we get them to batch delete? Can we set up a keyhole API for running SQL UPDATE/INSERT on their data?</t>
+  </si>
+  <si>
+    <t>SyncKey_start</t>
+  </si>
+  <si>
+    <t>St Pet.</t>
+  </si>
+  <si>
+    <t>Should be 6 Dunhuang</t>
+  </si>
+  <si>
+    <t>Should be 2 NLC</t>
+  </si>
+  <si>
+    <t>Japan (now BL 1?)</t>
+  </si>
+  <si>
+    <t>For list of Pressmarks with blank Institute Id (also bogus value INST001961, etc) see https://github.com/britishlibrary/idp-data-issues/issues/21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1412,6 +1453,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1535,7 +1589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1558,9 +1612,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1610,11 +1661,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1669,10 +1775,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{492324D6-38CA-496A-88E5-0B82A98E6288}" name="Table1" displayName="Table1" ref="A1:B34" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:B34" xr:uid="{492324D6-38CA-496A-88E5-0B82A98E6288}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D07A3E4C-7F10-4CC3-92D9-CBB6D00CA110}" name="Institute id" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{492324D6-38CA-496A-88E5-0B82A98E6288}" name="Table1" displayName="Table1" ref="A1:C34" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:C34" xr:uid="{492324D6-38CA-496A-88E5-0B82A98E6288}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D07A3E4C-7F10-4CC3-92D9-CBB6D00CA110}" name="Institute id" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{295E08BD-E1BC-4D24-9116-BFB915573F13}" name="SyncKey_start" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{897A4104-C43F-4D7B-80E4-B83AE7D0A4AB}" name="Hosting DB"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1944,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="F51" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1956,8 +2063,8 @@
     <col min="6" max="6" width="13.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3"/>
-    <col min="9" max="9" width="30.6640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="30.33203125" style="15" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
@@ -1984,7 +2091,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>379</v>
@@ -2021,7 +2128,9 @@
       <c r="I2" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="14" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2041,9 +2150,9 @@
       <c r="G3" s="4">
         <v>272</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2063,9 +2172,9 @@
       <c r="G4" s="4">
         <v>147</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -2085,9 +2194,9 @@
       <c r="G5" s="4">
         <v>238</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2111,36 +2220,36 @@
       <c r="I6" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="J6" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>442</v>
+      <c r="I7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="69" x14ac:dyDescent="0.25">
@@ -2161,14 +2270,14 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="27" t="s">
         <v>385</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>443</v>
+      <c r="J8" s="14" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
@@ -2189,14 +2298,14 @@
       <c r="G9" s="4">
         <v>22</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="27" t="s">
         <v>385</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>444</v>
+        <v>423</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -2217,14 +2326,14 @@
       <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="31" t="s">
         <v>385</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>445</v>
+      <c r="J10" s="14" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2245,9 +2354,9 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2267,9 +2376,9 @@
       <c r="G12" s="4">
         <v>2</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2289,9 +2398,9 @@
       <c r="G13" s="4">
         <v>35</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2311,9 +2420,9 @@
       <c r="G14" s="4">
         <v>2</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2333,9 +2442,9 @@
       <c r="G15" s="4">
         <v>4</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2355,9 +2464,9 @@
       <c r="G16" s="4">
         <v>1</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -2377,9 +2486,9 @@
       <c r="G17" s="4">
         <v>14</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2399,12 +2508,12 @@
       <c r="G18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>450</v>
+      <c r="J18" s="14" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -2425,11 +2534,11 @@
       <c r="G19" s="4">
         <v>7</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2449,11 +2558,11 @@
       <c r="G20" s="4">
         <v>171</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2473,11 +2582,11 @@
       <c r="G21" s="4">
         <v>2</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2499,12 +2608,12 @@
       <c r="G22" s="4">
         <v>46</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>448</v>
+      <c r="J22" s="26" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -2525,12 +2634,12 @@
       <c r="G23" s="4">
         <v>1</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>449</v>
+      <c r="J23" s="14" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -2551,15 +2660,15 @@
       <c r="G24" s="4">
         <v>94</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="J24" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -2581,14 +2690,14 @@
       <c r="G25" s="4">
         <v>6</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>446</v>
+      <c r="J25" s="28" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
@@ -2613,13 +2722,13 @@
       <c r="G26" s="4">
         <v>20</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="J26" s="24"/>
+      <c r="H26" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2649,7 +2758,7 @@
       <c r="I27" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="J27" s="22"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2669,10 +2778,10 @@
       <c r="G28" s="4">
         <v>21</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15" t="s">
-        <v>450</v>
+      <c r="H28" s="12"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2693,9 +2802,9 @@
       <c r="G29" s="4">
         <v>36</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2715,9 +2824,9 @@
       <c r="G30" s="4">
         <v>4</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -2737,9 +2846,9 @@
       <c r="G31" s="4">
         <v>198</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2759,9 +2868,9 @@
       <c r="G32" s="4">
         <v>16</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -2785,14 +2894,14 @@
       <c r="G33" s="4">
         <v>91</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I33" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>451</v>
+      <c r="J33" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2817,14 +2926,14 @@
       <c r="G34" s="4">
         <v>42</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="H34" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I34" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>451</v>
+      <c r="J34" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -2849,14 +2958,14 @@
       <c r="G35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="H35" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I35" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>451</v>
+      <c r="J35" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -2881,14 +2990,14 @@
       <c r="G36" s="4">
         <v>3</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="H36" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I36" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>451</v>
+      <c r="J36" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2909,9 +3018,9 @@
       <c r="G37" s="4">
         <v>1</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2931,9 +3040,9 @@
       <c r="G38" s="4">
         <v>23</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2953,9 +3062,9 @@
       <c r="G39" s="4">
         <v>1</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -2975,9 +3084,9 @@
       <c r="G40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -2997,9 +3106,9 @@
       <c r="G41" s="4">
         <v>9</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -3019,9 +3128,9 @@
       <c r="G42" s="4">
         <v>1</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -3041,9 +3150,9 @@
       <c r="G43" s="4">
         <v>5</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -3063,9 +3172,9 @@
       <c r="G44" s="4">
         <v>1</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -3085,9 +3194,9 @@
       <c r="G45" s="4">
         <v>5</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -3107,9 +3216,9 @@
       <c r="G46" s="4">
         <v>10</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -3129,105 +3238,107 @@
       <c r="G47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11">
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10">
         <v>12</v>
       </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="16"/>
+      <c r="I48" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="J48" s="15" t="s">
-        <v>452</v>
+      <c r="J48" s="14" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11">
-        <v>1</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="11" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="J49" s="15"/>
+      <c r="J49" s="14" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11">
-        <v>1</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="11" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16"/>
+      <c r="I50" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="J50" s="15"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10">
         <v>4</v>
       </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -3247,9 +3358,9 @@
       <c r="G52" s="4">
         <v>1</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -3269,9 +3380,9 @@
       <c r="G53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -3295,13 +3406,15 @@
       <c r="G54" s="4">
         <v>111</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I54" s="15" t="s">
+      <c r="H54" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I54" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="J54" s="15"/>
+      <c r="J54" s="14" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -3321,9 +3434,9 @@
       <c r="G55" s="4">
         <v>18</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -3343,9 +3456,9 @@
       <c r="G56" s="4">
         <v>3</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -3365,9 +3478,9 @@
       <c r="G57" s="4">
         <v>32</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -3387,9 +3500,9 @@
       <c r="G58" s="4">
         <v>102</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -3409,9 +3522,9 @@
       <c r="G59" s="4">
         <v>3085</v>
       </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -3431,9 +3544,9 @@
       <c r="G60" s="4">
         <v>9</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -3451,9 +3564,9 @@
       <c r="G61" s="4">
         <v>476</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -3473,9 +3586,9 @@
       <c r="G62" s="4">
         <v>376</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -3495,9 +3608,9 @@
       <c r="G63" s="4">
         <v>8</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -3517,11 +3630,11 @@
       <c r="G64" s="4">
         <v>1</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="J64" s="15"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="J64" s="14"/>
     </row>
     <row r="65" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -3541,9 +3654,9 @@
       <c r="G65" s="4">
         <v>2</v>
       </c>
-      <c r="H65" s="13"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
     </row>
     <row r="66" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -3563,9 +3676,9 @@
       <c r="G66" s="4">
         <v>1</v>
       </c>
-      <c r="H66" s="13"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -3585,9 +3698,9 @@
       <c r="G67" s="4">
         <v>2</v>
       </c>
-      <c r="H67" s="13"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -3607,9 +3720,9 @@
       <c r="G68" s="4">
         <v>2676</v>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -3629,9 +3742,9 @@
       <c r="G69" s="4">
         <v>1</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -3651,9 +3764,9 @@
       <c r="G70" s="4">
         <v>1</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -3673,11 +3786,11 @@
       <c r="G71" s="4">
         <v>24</v>
       </c>
-      <c r="H71" s="13"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="H71" s="12"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+    </row>
+    <row r="72" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -3693,11 +3806,13 @@
       <c r="G72" s="4">
         <v>345</v>
       </c>
-      <c r="H72" s="13"/>
-      <c r="I72" s="4" t="s">
+      <c r="H72" s="12"/>
+      <c r="I72" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="J72" s="15"/>
+      <c r="J72" s="14" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -3717,9 +3832,9 @@
       <c r="G73" s="4">
         <v>6</v>
       </c>
-      <c r="H73" s="13"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -3743,13 +3858,13 @@
       <c r="G74" s="4">
         <v>1</v>
       </c>
-      <c r="H74" s="4" t="s">
+      <c r="H74" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="J74" s="15"/>
+      <c r="I74" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -3776,8 +3891,8 @@
       <c r="H75" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="24"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -3797,9 +3912,9 @@
       <c r="G76" s="4">
         <v>6</v>
       </c>
-      <c r="H76" s="13"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -3823,13 +3938,15 @@
       <c r="G77" s="4">
         <v>52</v>
       </c>
-      <c r="H77" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I77" s="9" t="s">
+      <c r="H77" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I77" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="J77" s="15"/>
+      <c r="J77" s="14" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -3856,10 +3973,10 @@
       <c r="H78" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I78" s="21" t="s">
+      <c r="I78" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="J78" s="23" t="s">
+      <c r="J78" s="22" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3885,13 +4002,13 @@
       <c r="G79" s="4">
         <v>1</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="27" t="s">
         <v>377</v>
       </c>
       <c r="I79" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="J79" s="15"/>
+      <c r="J79" s="14"/>
     </row>
     <row r="80" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -3921,7 +4038,7 @@
       <c r="I80" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J80" s="15"/>
+      <c r="J80" s="14"/>
     </row>
     <row r="81" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -3941,11 +4058,11 @@
       <c r="G81" s="4">
         <v>1</v>
       </c>
-      <c r="H81" s="13"/>
+      <c r="H81" s="12"/>
       <c r="I81" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="J81" s="15"/>
+      <c r="J81" s="14"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -3965,9 +4082,9 @@
       <c r="G82" s="4">
         <v>114</v>
       </c>
-      <c r="H82" s="13"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -3987,9 +4104,9 @@
       <c r="G83" s="4">
         <v>22</v>
       </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -4009,9 +4126,9 @@
       <c r="G84" s="4">
         <v>383</v>
       </c>
-      <c r="H84" s="13"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -4035,13 +4152,13 @@
       <c r="G85" s="4">
         <v>19</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="H85" s="31" t="s">
         <v>377</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="J85" s="15"/>
+        <v>451</v>
+      </c>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -4061,9 +4178,9 @@
       <c r="G86" s="4">
         <v>11</v>
       </c>
-      <c r="H86" s="13"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -4087,11 +4204,11 @@
       <c r="G87" s="4">
         <v>19</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="27" t="s">
         <v>377</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J87" s="4"/>
     </row>
@@ -4113,9 +4230,9 @@
       <c r="G88" s="4">
         <v>3</v>
       </c>
-      <c r="H88" s="13"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
@@ -4139,13 +4256,13 @@
       <c r="G89" s="4">
         <v>1</v>
       </c>
-      <c r="H89" s="13" t="s">
+      <c r="H89" s="31" t="s">
         <v>377</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="J89" s="15"/>
+        <v>402</v>
+      </c>
+      <c r="J89" s="14"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -4163,11 +4280,11 @@
       <c r="G90" s="4">
         <v>1</v>
       </c>
-      <c r="H90" s="13"/>
+      <c r="H90" s="12"/>
       <c r="I90" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="J90" s="15"/>
+        <v>403</v>
+      </c>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -4187,9 +4304,9 @@
       <c r="G91" s="4">
         <v>1</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -4209,9 +4326,9 @@
       <c r="G92" s="4">
         <v>1308</v>
       </c>
-      <c r="H92" s="13"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
@@ -4231,9 +4348,9 @@
       <c r="G93" s="4">
         <v>336</v>
       </c>
-      <c r="H93" s="13"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -4253,9 +4370,9 @@
       <c r="G94" s="4">
         <v>7</v>
       </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -4275,9 +4392,9 @@
       <c r="G95" s="4">
         <v>1</v>
       </c>
-      <c r="H95" s="13"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -4297,9 +4414,9 @@
       <c r="G96" s="4">
         <v>619</v>
       </c>
-      <c r="H96" s="13"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
@@ -4319,9 +4436,9 @@
       <c r="G97" s="4">
         <v>1</v>
       </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
     </row>
     <row r="98" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -4348,8 +4465,8 @@
       <c r="H98" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
@@ -4369,11 +4486,11 @@
       <c r="G99" s="4">
         <v>1</v>
       </c>
-      <c r="H99" s="12"/>
-      <c r="I99" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="J99" s="15"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="J99" s="14"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -4393,11 +4510,11 @@
       <c r="G100" s="4">
         <v>1</v>
       </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="J100" s="15"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="J100" s="14"/>
     </row>
     <row r="101" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -4421,13 +4538,13 @@
       <c r="G101" s="4">
         <v>1</v>
       </c>
-      <c r="H101" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I101" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="J101" s="15"/>
+      <c r="H101" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="J101" s="14"/>
     </row>
     <row r="102" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
@@ -4447,9 +4564,9 @@
       <c r="G102" s="4">
         <v>391</v>
       </c>
-      <c r="H102" s="13"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
     </row>
     <row r="103" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -4469,9 +4586,9 @@
       <c r="G103" s="4">
         <v>1</v>
       </c>
-      <c r="H103" s="13"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -4491,9 +4608,9 @@
       <c r="G104" s="4">
         <v>850</v>
       </c>
-      <c r="H104" s="13"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -4513,9 +4630,9 @@
       <c r="G105" s="4">
         <v>39</v>
       </c>
-      <c r="H105" s="13"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -4535,9 +4652,9 @@
       <c r="G106" s="4">
         <v>641</v>
       </c>
-      <c r="H106" s="13"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -4557,9 +4674,9 @@
       <c r="G107" s="4">
         <v>1</v>
       </c>
-      <c r="H107" s="13"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -4579,9 +4696,9 @@
       <c r="G108" s="4">
         <v>10</v>
       </c>
-      <c r="H108" s="13"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -4601,9 +4718,9 @@
       <c r="G109" s="4">
         <v>1</v>
       </c>
-      <c r="H109" s="13"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
@@ -4627,13 +4744,13 @@
       <c r="G110" s="4">
         <v>9</v>
       </c>
-      <c r="H110" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I110" s="15" t="s">
+      <c r="H110" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I110" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="J110" s="15"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
@@ -4657,11 +4774,11 @@
       <c r="G111" s="4">
         <v>41</v>
       </c>
-      <c r="H111" s="13" t="s">
+      <c r="H111" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -4681,9 +4798,9 @@
       <c r="G112" s="4">
         <v>1</v>
       </c>
-      <c r="H112" s="13"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -4703,9 +4820,9 @@
       <c r="G113" s="4">
         <v>1</v>
       </c>
-      <c r="H113" s="13"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -4729,11 +4846,11 @@
       <c r="G114" s="4">
         <v>2</v>
       </c>
-      <c r="H114" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
+      <c r="H114" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
     </row>
     <row r="115" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
@@ -4757,13 +4874,13 @@
       <c r="G115" s="4">
         <v>1</v>
       </c>
-      <c r="H115" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I115" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="J115" s="15"/>
+      <c r="H115" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="J115" s="14"/>
     </row>
     <row r="116" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
@@ -4787,13 +4904,13 @@
       <c r="G116" s="4">
         <v>4</v>
       </c>
-      <c r="H116" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I116" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="J116" s="15"/>
+      <c r="H116" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="J116" s="14"/>
     </row>
     <row r="117" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -4817,13 +4934,13 @@
       <c r="G117" s="4">
         <v>1</v>
       </c>
-      <c r="H117" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I117" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="J117" s="15"/>
+      <c r="H117" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="J117" s="14"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -4843,9 +4960,9 @@
       <c r="G118" s="4">
         <v>1</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -4869,11 +4986,11 @@
       <c r="G119" s="4">
         <v>5</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="27" t="s">
         <v>377</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J119" s="5"/>
     </row>
@@ -4899,13 +5016,13 @@
       <c r="G120" s="4">
         <v>9</v>
       </c>
-      <c r="H120" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I120" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="J120" s="15"/>
+      <c r="H120" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="J120" s="14"/>
     </row>
     <row r="121" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
@@ -4925,13 +5042,13 @@
       <c r="G121" s="4">
         <v>17</v>
       </c>
-      <c r="H121" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I121" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="J121" s="15"/>
+      <c r="H121" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="J121" s="14"/>
     </row>
     <row r="122" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
@@ -4951,13 +5068,13 @@
       <c r="G122" s="4">
         <v>25</v>
       </c>
-      <c r="H122" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I122" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="J122" s="15"/>
+      <c r="H122" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
@@ -4977,9 +5094,9 @@
       <c r="G123" s="4">
         <v>4</v>
       </c>
-      <c r="H123" s="13"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -5003,11 +5120,11 @@
       <c r="G124" s="4">
         <v>4</v>
       </c>
-      <c r="H124" s="13" t="s">
+      <c r="H124" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
@@ -5027,9 +5144,9 @@
       <c r="G125" s="4">
         <v>3</v>
       </c>
-      <c r="H125" s="13"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -5049,9 +5166,9 @@
       <c r="G126" s="4">
         <v>1</v>
       </c>
-      <c r="H126" s="13"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -5071,9 +5188,9 @@
       <c r="G127" s="4">
         <v>17</v>
       </c>
-      <c r="H127" s="13"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
@@ -5093,9 +5210,9 @@
       <c r="G128" s="4">
         <v>90</v>
       </c>
-      <c r="H128" s="13"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
@@ -5119,13 +5236,13 @@
       <c r="G129" s="4">
         <v>2</v>
       </c>
-      <c r="H129" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I129" s="15" t="s">
+      <c r="H129" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I129" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="J129" s="15"/>
+      <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
@@ -5145,9 +5262,9 @@
       <c r="G130" s="4">
         <v>7</v>
       </c>
-      <c r="H130" s="13"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
@@ -5156,7 +5273,7 @@
       <c r="B131" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C131" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -5167,9 +5284,9 @@
       <c r="G131" s="4">
         <v>2</v>
       </c>
-      <c r="H131" s="13"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -5189,9 +5306,9 @@
       <c r="G132" s="4">
         <v>7</v>
       </c>
-      <c r="H132" s="13"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -5211,9 +5328,9 @@
       <c r="G133" s="4">
         <v>1</v>
       </c>
-      <c r="H133" s="13"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -5233,9 +5350,9 @@
       <c r="G134" s="4">
         <v>1</v>
       </c>
-      <c r="H134" s="13"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
@@ -5255,67 +5372,67 @@
       <c r="G135" s="4">
         <v>2</v>
       </c>
-      <c r="H135" s="13"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
     </row>
     <row r="136" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10" t="s">
+      <c r="C136" s="9"/>
+      <c r="D136" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F136" s="10" t="s">
+      <c r="F136" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G136" s="11">
+      <c r="G136" s="10">
         <v>250</v>
       </c>
-      <c r="H136" s="17" t="s">
+      <c r="H136" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="I136" s="11" t="s">
+      <c r="I136" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="J136" s="15"/>
+      <c r="J136" s="14"/>
     </row>
     <row r="137" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C137" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E137" s="10" t="s">
+      <c r="E137" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F137" s="10" t="s">
+      <c r="F137" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G137" s="11">
+      <c r="G137" s="10">
         <v>2</v>
       </c>
-      <c r="H137" s="11" t="s">
+      <c r="H137" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="I137" s="11" t="s">
+      <c r="I137" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="J137" s="15"/>
+      <c r="J137" s="14"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
@@ -5342,8 +5459,8 @@
       <c r="H138" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -5361,9 +5478,9 @@
       <c r="G139" s="4">
         <v>1</v>
       </c>
-      <c r="H139" s="13"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
@@ -5383,9 +5500,9 @@
       <c r="G140" s="4">
         <v>25</v>
       </c>
-      <c r="H140" s="13"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
@@ -5405,9 +5522,9 @@
       <c r="G141" s="4">
         <v>1</v>
       </c>
-      <c r="H141" s="13"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
     </row>
     <row r="142" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
@@ -5427,9 +5544,9 @@
       <c r="G142" s="4">
         <v>8</v>
       </c>
-      <c r="H142" s="13"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
@@ -5449,9 +5566,9 @@
       <c r="G143" s="4">
         <v>7</v>
       </c>
-      <c r="H143" s="13"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
     </row>
     <row r="144" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
@@ -5471,9 +5588,9 @@
       <c r="G144" s="4">
         <v>2</v>
       </c>
-      <c r="H144" s="13"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
     </row>
     <row r="145" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
@@ -5493,9 +5610,9 @@
       <c r="G145" s="4">
         <v>4539</v>
       </c>
-      <c r="H145" s="13"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
     </row>
     <row r="146" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -5515,9 +5632,9 @@
       <c r="G146" s="4">
         <v>370</v>
       </c>
-      <c r="H146" s="13"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
@@ -5535,11 +5652,11 @@
       <c r="G147" s="4">
         <v>17</v>
       </c>
-      <c r="H147" s="13"/>
-      <c r="I147" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="J147" s="15"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="J147" s="14"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -5559,9 +5676,9 @@
       <c r="G148" s="4">
         <v>1</v>
       </c>
-      <c r="H148" s="13"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -5585,11 +5702,11 @@
       <c r="G149" s="4">
         <v>44</v>
       </c>
-      <c r="H149" s="13" t="s">
+      <c r="H149" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
     </row>
     <row r="150" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -5613,9 +5730,9 @@
       <c r="G150" s="4">
         <v>12</v>
       </c>
-      <c r="H150" s="13"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
     </row>
     <row r="151" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
@@ -5639,9 +5756,9 @@
       <c r="G151" s="4">
         <v>1</v>
       </c>
-      <c r="H151" s="13"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="14"/>
+      <c r="J151" s="14"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -5661,9 +5778,9 @@
       <c r="G152" s="4">
         <v>28</v>
       </c>
-      <c r="H152" s="13"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="14"/>
+      <c r="J152" s="14"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
@@ -5683,9 +5800,9 @@
       <c r="G153" s="4">
         <v>2</v>
       </c>
-      <c r="H153" s="13"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="14"/>
+      <c r="J153" s="14"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -5705,9 +5822,9 @@
       <c r="G154" s="4">
         <v>351</v>
       </c>
-      <c r="H154" s="13"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="14"/>
+      <c r="J154" s="14"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
@@ -5727,9 +5844,9 @@
       <c r="G155" s="4">
         <v>2</v>
       </c>
-      <c r="H155" s="13"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="14"/>
+      <c r="J155" s="14"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -5749,9 +5866,9 @@
       <c r="G156" s="4">
         <v>2</v>
       </c>
-      <c r="H156" s="13"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
@@ -5771,219 +5888,219 @@
       <c r="G157" s="4">
         <v>7</v>
       </c>
-      <c r="H157" s="13"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
     </row>
     <row r="158" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="F158" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G158" s="11">
+      <c r="G158" s="10">
         <v>8</v>
       </c>
-      <c r="H158" s="13" t="s">
+      <c r="H158" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I158" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="J158" s="15"/>
+      <c r="I158" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D159" s="10" t="s">
+      <c r="D159" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F159" s="10" t="s">
+      <c r="F159" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G159" s="11">
+      <c r="G159" s="10">
         <v>7</v>
       </c>
-      <c r="H159" s="13" t="s">
+      <c r="H159" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I159" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="J159" s="15"/>
+      <c r="I159" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E160" s="10" t="s">
+      <c r="E160" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F160" s="10" t="s">
+      <c r="F160" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G160" s="11">
+      <c r="G160" s="10">
         <v>4</v>
       </c>
-      <c r="H160" s="13" t="s">
+      <c r="H160" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I160" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="J160" s="15"/>
+      <c r="I160" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J160" s="14"/>
     </row>
     <row r="161" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D161" s="10" t="s">
+      <c r="D161" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F161" s="10" t="s">
+      <c r="F161" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G161" s="11">
+      <c r="G161" s="10">
         <v>14</v>
       </c>
-      <c r="H161" s="13" t="s">
+      <c r="H161" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I161" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="J161" s="15"/>
+      <c r="I161" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J161" s="14"/>
     </row>
     <row r="162" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="C162" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E162" s="10" t="s">
+      <c r="E162" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F162" s="10" t="s">
+      <c r="F162" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G162" s="11">
+      <c r="G162" s="10">
         <v>15</v>
       </c>
-      <c r="H162" s="13" t="s">
+      <c r="H162" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I162" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="J162" s="15"/>
+      <c r="I162" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J162" s="14"/>
     </row>
     <row r="163" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="C163" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D163" s="10" t="s">
+      <c r="D163" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E163" s="10" t="s">
+      <c r="E163" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F163" s="10" t="s">
+      <c r="F163" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G163" s="11">
+      <c r="G163" s="10">
         <v>17</v>
       </c>
-      <c r="H163" s="13" t="s">
+      <c r="H163" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I163" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="J163" s="15"/>
+      <c r="I163" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J163" s="14"/>
     </row>
     <row r="164" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E164" s="10" t="s">
+      <c r="E164" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F164" s="10" t="s">
+      <c r="F164" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G164" s="11">
+      <c r="G164" s="10">
         <v>23</v>
       </c>
-      <c r="H164" s="13" t="s">
+      <c r="H164" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I164" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="J164" s="15"/>
+      <c r="I164" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="J164" s="14"/>
     </row>
     <row r="165" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -6001,11 +6118,11 @@
       <c r="G165" s="4">
         <v>1</v>
       </c>
-      <c r="H165" s="13"/>
-      <c r="I165" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="J165" s="15"/>
+      <c r="H165" s="31"/>
+      <c r="I165" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="J165" s="14"/>
     </row>
     <row r="166" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -6025,9 +6142,9 @@
       <c r="G166" s="4">
         <v>5</v>
       </c>
-      <c r="H166" s="13"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="15"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
@@ -6047,9 +6164,9 @@
       <c r="G167" s="4">
         <v>16621</v>
       </c>
-      <c r="H167" s="13"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="15"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
     </row>
     <row r="168" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
@@ -6069,9 +6186,9 @@
       <c r="G168" s="4">
         <v>25359</v>
       </c>
-      <c r="H168" s="13"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="14"/>
+      <c r="J168" s="14"/>
     </row>
     <row r="169" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
@@ -6091,9 +6208,9 @@
       <c r="G169" s="4">
         <v>1</v>
       </c>
-      <c r="H169" s="13"/>
-      <c r="I169" s="15"/>
-      <c r="J169" s="15"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="14"/>
     </row>
     <row r="170" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
@@ -6113,9 +6230,9 @@
       <c r="G170" s="4">
         <v>1</v>
       </c>
-      <c r="H170" s="13"/>
-      <c r="I170" s="15"/>
-      <c r="J170" s="15"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="14"/>
+      <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
@@ -6135,9 +6252,9 @@
       <c r="G171" s="4">
         <v>1</v>
       </c>
-      <c r="H171" s="13"/>
-      <c r="I171" s="15"/>
-      <c r="J171" s="15"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="14"/>
+      <c r="J171" s="14"/>
     </row>
     <row r="172" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -6157,9 +6274,9 @@
       <c r="G172" s="4">
         <v>1724</v>
       </c>
-      <c r="H172" s="13"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="15"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
     </row>
     <row r="173" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
@@ -6179,9 +6296,9 @@
       <c r="G173" s="4">
         <v>45</v>
       </c>
-      <c r="H173" s="13"/>
-      <c r="I173" s="15"/>
-      <c r="J173" s="15"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="14"/>
+      <c r="J173" s="14"/>
     </row>
     <row r="174" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
@@ -6201,9 +6318,9 @@
       <c r="G174" s="4">
         <v>69</v>
       </c>
-      <c r="H174" s="13"/>
-      <c r="I174" s="15"/>
-      <c r="J174" s="15"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="14"/>
+      <c r="J174" s="14"/>
     </row>
     <row r="175" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
@@ -6223,9 +6340,9 @@
       <c r="G175" s="4">
         <v>162</v>
       </c>
-      <c r="H175" s="13"/>
-      <c r="I175" s="15"/>
-      <c r="J175" s="15"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="14"/>
+      <c r="J175" s="14"/>
     </row>
     <row r="176" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
@@ -6245,9 +6362,9 @@
       <c r="G176" s="4">
         <v>8562</v>
       </c>
-      <c r="H176" s="13"/>
-      <c r="I176" s="15"/>
-      <c r="J176" s="15"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="14"/>
+      <c r="J176" s="14"/>
     </row>
     <row r="177" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
@@ -6267,9 +6384,9 @@
       <c r="G177" s="4">
         <v>2</v>
       </c>
-      <c r="H177" s="13"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="15"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="14"/>
+      <c r="J177" s="14"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -6289,9 +6406,9 @@
       <c r="G178" s="4">
         <v>1</v>
       </c>
-      <c r="H178" s="13"/>
-      <c r="I178" s="15"/>
-      <c r="J178" s="15"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="14"/>
+      <c r="J178" s="14"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
@@ -6311,9 +6428,9 @@
       <c r="G179" s="4">
         <v>4</v>
       </c>
-      <c r="H179" s="13"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="15"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="14"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
@@ -6333,9 +6450,9 @@
       <c r="G180" s="4">
         <v>7</v>
       </c>
-      <c r="H180" s="13"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="14"/>
+      <c r="J180" s="14"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -6355,9 +6472,9 @@
       <c r="G181" s="4">
         <v>1</v>
       </c>
-      <c r="H181" s="13"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="15"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
@@ -6375,11 +6492,11 @@
       <c r="G182" s="4">
         <v>1</v>
       </c>
-      <c r="H182" s="13"/>
-      <c r="I182" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="J182" s="15"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="J182" s="14"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
@@ -6399,9 +6516,9 @@
       <c r="G183" s="4">
         <v>11</v>
       </c>
-      <c r="H183" s="13"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
@@ -6421,9 +6538,9 @@
       <c r="G184" s="4">
         <v>2</v>
       </c>
-      <c r="H184" s="13"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="15"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -6443,13 +6560,13 @@
       <c r="G185" s="4">
         <v>1</v>
       </c>
-      <c r="H185" s="13" t="s">
+      <c r="H185" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I185" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="J185" s="15"/>
+      <c r="I185" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="J185" s="14"/>
     </row>
     <row r="186" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -6469,11 +6586,11 @@
       <c r="G186" s="4">
         <v>1</v>
       </c>
-      <c r="H186" s="13"/>
+      <c r="H186" s="12"/>
       <c r="I186" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="J186" s="15"/>
+        <v>414</v>
+      </c>
+      <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
@@ -6497,13 +6614,13 @@
       <c r="G187" s="4">
         <v>1</v>
       </c>
-      <c r="H187" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I187" s="2" t="s">
+      <c r="H187" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I187" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="J187" s="15"/>
+      <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
@@ -6523,9 +6640,9 @@
       <c r="G188" s="4">
         <v>72</v>
       </c>
-      <c r="H188" s="13"/>
-      <c r="I188" s="15"/>
-      <c r="J188" s="15"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
@@ -6549,13 +6666,13 @@
       <c r="G189" s="4">
         <v>1</v>
       </c>
-      <c r="H189" s="13" t="s">
+      <c r="H189" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I189" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="J189" s="15"/>
+      <c r="I189" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="J189" s="14"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
@@ -6575,9 +6692,9 @@
       <c r="G190" s="4">
         <v>26</v>
       </c>
-      <c r="H190" s="13"/>
-      <c r="I190" s="15"/>
-      <c r="J190" s="15"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="14"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
@@ -6597,9 +6714,9 @@
       <c r="G191" s="4">
         <v>7236</v>
       </c>
-      <c r="H191" s="13"/>
-      <c r="I191" s="15"/>
-      <c r="J191" s="15"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
@@ -6619,9 +6736,9 @@
       <c r="G192" s="4">
         <v>2538</v>
       </c>
-      <c r="H192" s="13"/>
-      <c r="I192" s="15"/>
-      <c r="J192" s="15"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="14"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
@@ -6641,9 +6758,9 @@
       <c r="G193" s="4">
         <v>5</v>
       </c>
-      <c r="H193" s="13"/>
-      <c r="I193" s="15"/>
-      <c r="J193" s="15"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="14"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
@@ -6663,9 +6780,9 @@
       <c r="G194" s="4">
         <v>1</v>
       </c>
-      <c r="H194" s="13"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="15"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="14"/>
+      <c r="J194" s="14"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
@@ -6685,9 +6802,9 @@
       <c r="G195" s="4">
         <v>289</v>
       </c>
-      <c r="H195" s="13"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="15"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="14"/>
+      <c r="J195" s="14"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
@@ -6707,9 +6824,9 @@
       <c r="G196" s="4">
         <v>1</v>
       </c>
-      <c r="H196" s="13"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="14"/>
+      <c r="J196" s="14"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
@@ -6729,9 +6846,9 @@
       <c r="G197" s="4">
         <v>4</v>
       </c>
-      <c r="H197" s="13"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="14"/>
+      <c r="J197" s="14"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
@@ -6751,9 +6868,9 @@
       <c r="G198" s="4">
         <v>11</v>
       </c>
-      <c r="H198" s="13"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="15"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="14"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
@@ -6773,9 +6890,9 @@
       <c r="G199" s="4">
         <v>1</v>
       </c>
-      <c r="H199" s="13"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="14"/>
+      <c r="J199" s="14"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
@@ -6795,9 +6912,9 @@
       <c r="G200" s="4">
         <v>1</v>
       </c>
-      <c r="H200" s="13"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="14"/>
+      <c r="J200" s="14"/>
     </row>
     <row r="201" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
@@ -6817,11 +6934,11 @@
       <c r="G201" s="4">
         <v>1</v>
       </c>
-      <c r="H201" s="13"/>
+      <c r="H201" s="12"/>
       <c r="I201" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="J201" s="15"/>
+        <v>415</v>
+      </c>
+      <c r="J201" s="14"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
@@ -6839,9 +6956,11 @@
       <c r="G202" s="4">
         <v>2</v>
       </c>
-      <c r="H202" s="13"/>
-      <c r="I202" s="15"/>
-      <c r="J202" s="15"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="J202" s="14"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
@@ -6861,161 +6980,161 @@
       <c r="G203" s="4">
         <v>1</v>
       </c>
-      <c r="H203" s="13"/>
-      <c r="I203" s="15"/>
-      <c r="J203" s="15"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="14"/>
     </row>
     <row r="204" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="11">
+      <c r="C204" s="9"/>
+      <c r="D204" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="10">
         <v>36</v>
       </c>
-      <c r="H204" s="13"/>
-      <c r="I204" s="15"/>
-      <c r="J204" s="15"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="14"/>
+      <c r="J204" s="14"/>
     </row>
     <row r="205" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A205" s="10" t="s">
+      <c r="A205" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D205" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="11">
-        <v>1</v>
-      </c>
-      <c r="H205" s="13"/>
-      <c r="I205" s="15"/>
-      <c r="J205" s="15"/>
+      <c r="D205" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="10">
+        <v>1</v>
+      </c>
+      <c r="H205" s="12"/>
+      <c r="I205" s="14"/>
+      <c r="J205" s="14"/>
     </row>
     <row r="206" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D206" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="11">
+      <c r="D206" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="10">
         <v>8368</v>
       </c>
-      <c r="H206" s="13"/>
-      <c r="I206" s="15"/>
-      <c r="J206" s="15"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="14"/>
+      <c r="J206" s="14"/>
     </row>
     <row r="207" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D207" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="11">
+      <c r="D207" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="10">
         <v>439</v>
       </c>
-      <c r="H207" s="13"/>
-      <c r="I207" s="15"/>
-      <c r="J207" s="15"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="14"/>
+      <c r="J207" s="14"/>
     </row>
     <row r="208" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D208" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="11">
+      <c r="D208" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="10">
         <v>847</v>
       </c>
-      <c r="H208" s="13"/>
-      <c r="I208" s="15"/>
-      <c r="J208" s="15"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="14"/>
+      <c r="J208" s="14"/>
     </row>
     <row r="209" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
+      <c r="A209" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D209" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="11">
+      <c r="D209" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="10">
         <v>3</v>
       </c>
-      <c r="H209" s="13"/>
-      <c r="I209" s="15"/>
-      <c r="J209" s="15"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="14"/>
+      <c r="J209" s="14"/>
     </row>
     <row r="210" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A210" s="10" t="s">
+      <c r="A210" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D210" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="11">
-        <v>1</v>
-      </c>
-      <c r="H210" s="13"/>
-      <c r="I210" s="15"/>
-      <c r="J210" s="15"/>
+      <c r="D210" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="10">
+        <v>1</v>
+      </c>
+      <c r="H210" s="12"/>
+      <c r="I210" s="14"/>
+      <c r="J210" s="14"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
@@ -7042,10 +7161,10 @@
       <c r="H211" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="I211" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="J211" s="15"/>
+      <c r="I211" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="J211" s="14"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
@@ -7065,9 +7184,9 @@
       <c r="G212" s="4">
         <v>32</v>
       </c>
-      <c r="H212" s="13"/>
-      <c r="I212" s="15"/>
-      <c r="J212" s="15"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="14"/>
+      <c r="J212" s="14"/>
     </row>
     <row r="213" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
@@ -7091,9 +7210,9 @@
       <c r="G213" s="4">
         <v>25</v>
       </c>
-      <c r="H213" s="13"/>
-      <c r="I213" s="15"/>
-      <c r="J213" s="15"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="14"/>
+      <c r="J213" s="14"/>
     </row>
     <row r="214" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
@@ -7117,9 +7236,9 @@
       <c r="G214" s="4">
         <v>9</v>
       </c>
-      <c r="H214" s="13"/>
-      <c r="I214" s="15"/>
-      <c r="J214" s="15"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="14"/>
+      <c r="J214" s="14"/>
     </row>
     <row r="215" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
@@ -7143,9 +7262,9 @@
       <c r="G215" s="4">
         <v>30</v>
       </c>
-      <c r="H215" s="13"/>
-      <c r="I215" s="15"/>
-      <c r="J215" s="15"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="14"/>
+      <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
@@ -7165,9 +7284,9 @@
       <c r="G216" s="4">
         <v>1</v>
       </c>
-      <c r="H216" s="13"/>
-      <c r="I216" s="15"/>
-      <c r="J216" s="15"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="14"/>
+      <c r="J216" s="14"/>
     </row>
     <row r="217" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
@@ -7191,13 +7310,13 @@
       <c r="G217" s="4">
         <v>1</v>
       </c>
-      <c r="H217" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I217" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="J217" s="15"/>
+      <c r="H217" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I217" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="J217" s="14"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
@@ -7215,11 +7334,11 @@
       <c r="G218" s="4">
         <v>2</v>
       </c>
-      <c r="H218" s="13"/>
-      <c r="I218" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="J218" s="15"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="J218" s="14"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
@@ -7239,9 +7358,9 @@
       <c r="G219" s="4">
         <v>50</v>
       </c>
-      <c r="H219" s="13"/>
-      <c r="I219" s="15"/>
-      <c r="J219" s="15"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="14"/>
+      <c r="J219" s="14"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
@@ -7261,9 +7380,9 @@
       <c r="G220" s="4">
         <v>114</v>
       </c>
-      <c r="H220" s="13"/>
-      <c r="I220" s="15"/>
-      <c r="J220" s="15"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="14"/>
+      <c r="J220" s="14"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
@@ -7283,9 +7402,9 @@
       <c r="G221" s="4">
         <v>8579</v>
       </c>
-      <c r="H221" s="13"/>
-      <c r="I221" s="15"/>
-      <c r="J221" s="15"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="14"/>
+      <c r="J221" s="14"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
@@ -7305,9 +7424,9 @@
       <c r="G222" s="4">
         <v>10</v>
       </c>
-      <c r="H222" s="13"/>
-      <c r="I222" s="15"/>
-      <c r="J222" s="15"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="14"/>
+      <c r="J222" s="14"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
@@ -7327,9 +7446,9 @@
       <c r="G223" s="4">
         <v>3</v>
       </c>
-      <c r="H223" s="13"/>
-      <c r="I223" s="15"/>
-      <c r="J223" s="15"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="14"/>
+      <c r="J223" s="14"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
@@ -7349,9 +7468,9 @@
       <c r="G224" s="4">
         <v>4</v>
       </c>
-      <c r="H224" s="13"/>
-      <c r="I224" s="15"/>
-      <c r="J224" s="15"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="14"/>
+      <c r="J224" s="14"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
@@ -7371,9 +7490,9 @@
       <c r="G225" s="4">
         <v>346</v>
       </c>
-      <c r="H225" s="13"/>
-      <c r="I225" s="15"/>
-      <c r="J225" s="15"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="14"/>
+      <c r="J225" s="14"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
@@ -7393,9 +7512,9 @@
       <c r="G226" s="4">
         <v>1</v>
       </c>
-      <c r="H226" s="13"/>
-      <c r="I226" s="15"/>
-      <c r="J226" s="15"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="14"/>
+      <c r="J226" s="14"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
@@ -7415,9 +7534,9 @@
       <c r="G227" s="4">
         <v>1</v>
       </c>
-      <c r="H227" s="13"/>
-      <c r="I227" s="15"/>
-      <c r="J227" s="15"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="14"/>
+      <c r="J227" s="14"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
@@ -7437,9 +7556,9 @@
       <c r="G228" s="4">
         <v>2110</v>
       </c>
-      <c r="H228" s="13"/>
-      <c r="I228" s="15"/>
-      <c r="J228" s="15"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="14"/>
+      <c r="J228" s="14"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
@@ -7459,9 +7578,9 @@
       <c r="G229" s="4">
         <v>16</v>
       </c>
-      <c r="H229" s="13"/>
-      <c r="I229" s="15"/>
-      <c r="J229" s="15"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="14"/>
+      <c r="J229" s="14"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
@@ -7481,9 +7600,9 @@
       <c r="G230" s="4">
         <v>1</v>
       </c>
-      <c r="H230" s="13"/>
-      <c r="I230" s="15"/>
-      <c r="J230" s="15"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="14"/>
+      <c r="J230" s="14"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
@@ -7503,9 +7622,9 @@
       <c r="G231" s="4">
         <v>10443</v>
       </c>
-      <c r="H231" s="13"/>
-      <c r="I231" s="15"/>
-      <c r="J231" s="15"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="14"/>
+      <c r="J231" s="14"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
@@ -7525,9 +7644,9 @@
       <c r="G232" s="4">
         <v>7</v>
       </c>
-      <c r="H232" s="13"/>
-      <c r="I232" s="15"/>
-      <c r="J232" s="15"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="14"/>
+      <c r="J232" s="14"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
@@ -7547,9 +7666,9 @@
       <c r="G233" s="4">
         <v>1</v>
       </c>
-      <c r="H233" s="13"/>
-      <c r="I233" s="15"/>
-      <c r="J233" s="15"/>
+      <c r="H233" s="12"/>
+      <c r="I233" s="14"/>
+      <c r="J233" s="14"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
@@ -7569,9 +7688,9 @@
       <c r="G234" s="4">
         <v>1</v>
       </c>
-      <c r="H234" s="13"/>
-      <c r="I234" s="15"/>
-      <c r="J234" s="15"/>
+      <c r="H234" s="12"/>
+      <c r="I234" s="14"/>
+      <c r="J234" s="14"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
@@ -7591,9 +7710,9 @@
       <c r="G235" s="4">
         <v>1</v>
       </c>
-      <c r="H235" s="13"/>
-      <c r="I235" s="15"/>
-      <c r="J235" s="15"/>
+      <c r="H235" s="12"/>
+      <c r="I235" s="14"/>
+      <c r="J235" s="14"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
@@ -7613,9 +7732,9 @@
       <c r="G236" s="4">
         <v>49</v>
       </c>
-      <c r="H236" s="13"/>
-      <c r="I236" s="15"/>
-      <c r="J236" s="15"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="14"/>
+      <c r="J236" s="14"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
@@ -7635,9 +7754,9 @@
       <c r="G237" s="4">
         <v>21</v>
       </c>
-      <c r="H237" s="13"/>
-      <c r="I237" s="15"/>
-      <c r="J237" s="15"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="14"/>
+      <c r="J237" s="14"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
@@ -7657,9 +7776,9 @@
       <c r="G238" s="4">
         <v>100</v>
       </c>
-      <c r="H238" s="13"/>
-      <c r="I238" s="15"/>
-      <c r="J238" s="15"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="14"/>
+      <c r="J238" s="14"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
@@ -7679,9 +7798,9 @@
       <c r="G239" s="4">
         <v>1</v>
       </c>
-      <c r="H239" s="13"/>
-      <c r="I239" s="15"/>
-      <c r="J239" s="15"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="14"/>
+      <c r="J239" s="14"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
@@ -7701,9 +7820,9 @@
       <c r="G240" s="4">
         <v>21</v>
       </c>
-      <c r="H240" s="13"/>
-      <c r="I240" s="15"/>
-      <c r="J240" s="15"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="14"/>
+      <c r="J240" s="14"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
@@ -7723,9 +7842,9 @@
       <c r="G241" s="4">
         <v>17</v>
       </c>
-      <c r="H241" s="13"/>
-      <c r="I241" s="15"/>
-      <c r="J241" s="15"/>
+      <c r="H241" s="12"/>
+      <c r="I241" s="14"/>
+      <c r="J241" s="14"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
@@ -7745,9 +7864,9 @@
       <c r="G242" s="4">
         <v>31</v>
       </c>
-      <c r="H242" s="13"/>
-      <c r="I242" s="15"/>
-      <c r="J242" s="15"/>
+      <c r="H242" s="12"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
@@ -7767,9 +7886,9 @@
       <c r="G243" s="4">
         <v>1</v>
       </c>
-      <c r="H243" s="13"/>
-      <c r="I243" s="15"/>
-      <c r="J243" s="15"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="14"/>
+      <c r="J243" s="14"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
@@ -7789,9 +7908,9 @@
       <c r="G244" s="4">
         <v>2</v>
       </c>
-      <c r="H244" s="13"/>
-      <c r="I244" s="15"/>
-      <c r="J244" s="15"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="14"/>
+      <c r="J244" s="14"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
@@ -7811,9 +7930,9 @@
       <c r="G245" s="4">
         <v>1</v>
       </c>
-      <c r="H245" s="13"/>
-      <c r="I245" s="15"/>
-      <c r="J245" s="15"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="14"/>
+      <c r="J245" s="14"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
@@ -7833,9 +7952,9 @@
       <c r="G246" s="4">
         <v>7</v>
       </c>
-      <c r="H246" s="13"/>
-      <c r="I246" s="15"/>
-      <c r="J246" s="15"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="14"/>
+      <c r="J246" s="14"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
@@ -7855,9 +7974,9 @@
       <c r="G247" s="4">
         <v>108</v>
       </c>
-      <c r="H247" s="13"/>
-      <c r="I247" s="15"/>
-      <c r="J247" s="15"/>
+      <c r="H247" s="12"/>
+      <c r="I247" s="14"/>
+      <c r="J247" s="14"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
@@ -7877,9 +7996,9 @@
       <c r="G248" s="4">
         <v>4</v>
       </c>
-      <c r="H248" s="13"/>
-      <c r="I248" s="15"/>
-      <c r="J248" s="15"/>
+      <c r="H248" s="12"/>
+      <c r="I248" s="14"/>
+      <c r="J248" s="14"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
@@ -7899,9 +8018,9 @@
       <c r="G249" s="4">
         <v>1</v>
       </c>
-      <c r="H249" s="13"/>
-      <c r="I249" s="15"/>
-      <c r="J249" s="15"/>
+      <c r="H249" s="12"/>
+      <c r="I249" s="14"/>
+      <c r="J249" s="14"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
@@ -7921,9 +8040,9 @@
       <c r="G250" s="4">
         <v>11</v>
       </c>
-      <c r="H250" s="13"/>
-      <c r="I250" s="15"/>
-      <c r="J250" s="15"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="14"/>
+      <c r="J250" s="14"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
@@ -7941,11 +8060,11 @@
       <c r="G251" s="4">
         <v>1</v>
       </c>
-      <c r="H251" s="13"/>
-      <c r="I251" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="J251" s="15"/>
+      <c r="H251" s="31"/>
+      <c r="I251" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="J251" s="14"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
@@ -7965,9 +8084,9 @@
       <c r="G252" s="4">
         <v>5</v>
       </c>
-      <c r="H252" s="13"/>
-      <c r="I252" s="15"/>
-      <c r="J252" s="15"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="14"/>
+      <c r="J252" s="14"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
@@ -7987,9 +8106,9 @@
       <c r="G253" s="4">
         <v>3</v>
       </c>
-      <c r="H253" s="13"/>
-      <c r="I253" s="15"/>
-      <c r="J253" s="15"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="14"/>
+      <c r="J253" s="14"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
@@ -8009,9 +8128,9 @@
       <c r="G254" s="4">
         <v>9</v>
       </c>
-      <c r="H254" s="13"/>
-      <c r="I254" s="15"/>
-      <c r="J254" s="15"/>
+      <c r="H254" s="12"/>
+      <c r="I254" s="14"/>
+      <c r="J254" s="14"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
@@ -8031,9 +8150,9 @@
       <c r="G255" s="4">
         <v>2</v>
       </c>
-      <c r="H255" s="13"/>
-      <c r="I255" s="15"/>
-      <c r="J255" s="15"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="14"/>
+      <c r="J255" s="14"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
@@ -8053,9 +8172,9 @@
       <c r="G256" s="4">
         <v>5</v>
       </c>
-      <c r="H256" s="13"/>
-      <c r="I256" s="15"/>
-      <c r="J256" s="15"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="14"/>
+      <c r="J256" s="14"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
@@ -8075,9 +8194,9 @@
       <c r="G257" s="4">
         <v>1</v>
       </c>
-      <c r="H257" s="13"/>
-      <c r="I257" s="15"/>
-      <c r="J257" s="15"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="14"/>
+      <c r="J257" s="14"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
@@ -8097,9 +8216,9 @@
       <c r="G258" s="4">
         <v>41</v>
       </c>
-      <c r="H258" s="13"/>
-      <c r="I258" s="15"/>
-      <c r="J258" s="15"/>
+      <c r="H258" s="12"/>
+      <c r="I258" s="14"/>
+      <c r="J258" s="14"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
@@ -8119,9 +8238,9 @@
       <c r="G259" s="4">
         <v>75</v>
       </c>
-      <c r="H259" s="13"/>
-      <c r="I259" s="15"/>
-      <c r="J259" s="15"/>
+      <c r="H259" s="12"/>
+      <c r="I259" s="14"/>
+      <c r="J259" s="14"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
@@ -8141,9 +8260,9 @@
       <c r="G260" s="4">
         <v>32</v>
       </c>
-      <c r="H260" s="13"/>
-      <c r="I260" s="15"/>
-      <c r="J260" s="15"/>
+      <c r="H260" s="12"/>
+      <c r="I260" s="14"/>
+      <c r="J260" s="14"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
@@ -8163,9 +8282,9 @@
       <c r="G261" s="4">
         <v>9</v>
       </c>
-      <c r="H261" s="13"/>
-      <c r="I261" s="15"/>
-      <c r="J261" s="15"/>
+      <c r="H261" s="12"/>
+      <c r="I261" s="14"/>
+      <c r="J261" s="14"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
@@ -8185,9 +8304,9 @@
       <c r="G262" s="4">
         <v>1</v>
       </c>
-      <c r="H262" s="13"/>
-      <c r="I262" s="15"/>
-      <c r="J262" s="15"/>
+      <c r="H262" s="12"/>
+      <c r="I262" s="14"/>
+      <c r="J262" s="14"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
@@ -8211,11 +8330,11 @@
       <c r="G263" s="4">
         <v>1</v>
       </c>
-      <c r="H263" s="13" t="s">
+      <c r="H263" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I263" s="15"/>
-      <c r="J263" s="15"/>
+      <c r="I263" s="14"/>
+      <c r="J263" s="14"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
@@ -8235,9 +8354,9 @@
       <c r="G264" s="4">
         <v>1</v>
       </c>
-      <c r="H264" s="13"/>
-      <c r="I264" s="15"/>
-      <c r="J264" s="15"/>
+      <c r="H264" s="12"/>
+      <c r="I264" s="14"/>
+      <c r="J264" s="14"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
@@ -8257,9 +8376,9 @@
       <c r="G265" s="4">
         <v>4</v>
       </c>
-      <c r="H265" s="13"/>
-      <c r="I265" s="15"/>
-      <c r="J265" s="15"/>
+      <c r="H265" s="12"/>
+      <c r="I265" s="14"/>
+      <c r="J265" s="14"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
@@ -8279,9 +8398,9 @@
       <c r="G266" s="4">
         <v>1</v>
       </c>
-      <c r="H266" s="13"/>
-      <c r="I266" s="15"/>
-      <c r="J266" s="15"/>
+      <c r="H266" s="12"/>
+      <c r="I266" s="14"/>
+      <c r="J266" s="14"/>
     </row>
     <row r="267" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
@@ -8305,13 +8424,13 @@
       <c r="G267" s="4">
         <v>4</v>
       </c>
-      <c r="H267" s="13" t="s">
+      <c r="H267" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I267" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="J267" s="15"/>
+      <c r="I267" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="J267" s="14"/>
     </row>
     <row r="268" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
@@ -8335,13 +8454,13 @@
       <c r="G268" s="4">
         <v>3</v>
       </c>
-      <c r="H268" s="13" t="s">
+      <c r="H268" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I268" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="J268" s="15"/>
+      <c r="I268" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="J268" s="14"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
@@ -8361,9 +8480,9 @@
       <c r="G269" s="4">
         <v>2</v>
       </c>
-      <c r="H269" s="13"/>
-      <c r="I269" s="15"/>
-      <c r="J269" s="15"/>
+      <c r="H269" s="12"/>
+      <c r="I269" s="14"/>
+      <c r="J269" s="14"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
@@ -8383,9 +8502,9 @@
       <c r="G270" s="4">
         <v>13</v>
       </c>
-      <c r="H270" s="13"/>
-      <c r="I270" s="15"/>
-      <c r="J270" s="15"/>
+      <c r="H270" s="12"/>
+      <c r="I270" s="14"/>
+      <c r="J270" s="14"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
@@ -8405,9 +8524,9 @@
       <c r="G271" s="4">
         <v>26</v>
       </c>
-      <c r="H271" s="13"/>
-      <c r="I271" s="15"/>
-      <c r="J271" s="15"/>
+      <c r="H271" s="12"/>
+      <c r="I271" s="14"/>
+      <c r="J271" s="14"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
@@ -8427,9 +8546,9 @@
       <c r="G272" s="4">
         <v>7</v>
       </c>
-      <c r="H272" s="13"/>
-      <c r="I272" s="15"/>
-      <c r="J272" s="15"/>
+      <c r="H272" s="12"/>
+      <c r="I272" s="14"/>
+      <c r="J272" s="14"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
@@ -8449,9 +8568,9 @@
       <c r="G273" s="4">
         <v>4</v>
       </c>
-      <c r="H273" s="13"/>
-      <c r="I273" s="15"/>
-      <c r="J273" s="15"/>
+      <c r="H273" s="12"/>
+      <c r="I273" s="14"/>
+      <c r="J273" s="14"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
@@ -8471,9 +8590,9 @@
       <c r="G274" s="4">
         <v>3</v>
       </c>
-      <c r="H274" s="13"/>
-      <c r="I274" s="15"/>
-      <c r="J274" s="15"/>
+      <c r="H274" s="12"/>
+      <c r="I274" s="14"/>
+      <c r="J274" s="14"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
@@ -8493,9 +8612,9 @@
       <c r="G275" s="4">
         <v>1</v>
       </c>
-      <c r="H275" s="13"/>
-      <c r="I275" s="15"/>
-      <c r="J275" s="15"/>
+      <c r="H275" s="12"/>
+      <c r="I275" s="14"/>
+      <c r="J275" s="14"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
@@ -8515,9 +8634,9 @@
       <c r="G276" s="4">
         <v>15</v>
       </c>
-      <c r="H276" s="13"/>
-      <c r="I276" s="15"/>
-      <c r="J276" s="15"/>
+      <c r="H276" s="12"/>
+      <c r="I276" s="14"/>
+      <c r="J276" s="14"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
@@ -8537,9 +8656,9 @@
       <c r="G277" s="4">
         <v>2</v>
       </c>
-      <c r="H277" s="13"/>
-      <c r="I277" s="15"/>
-      <c r="J277" s="15"/>
+      <c r="H277" s="12"/>
+      <c r="I277" s="14"/>
+      <c r="J277" s="14"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
@@ -8559,9 +8678,9 @@
       <c r="G278" s="4">
         <v>7</v>
       </c>
-      <c r="H278" s="13"/>
-      <c r="I278" s="15"/>
-      <c r="J278" s="15"/>
+      <c r="H278" s="12"/>
+      <c r="I278" s="14"/>
+      <c r="J278" s="14"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
@@ -8581,9 +8700,9 @@
       <c r="G279" s="4">
         <v>1</v>
       </c>
-      <c r="H279" s="13"/>
-      <c r="I279" s="15"/>
-      <c r="J279" s="15"/>
+      <c r="H279" s="12"/>
+      <c r="I279" s="14"/>
+      <c r="J279" s="14"/>
     </row>
     <row r="280" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
@@ -8607,13 +8726,13 @@
       <c r="G280" s="4">
         <v>2</v>
       </c>
-      <c r="H280" s="13" t="s">
+      <c r="H280" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I280" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="J280" s="15"/>
+      <c r="I280" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="J280" s="14"/>
     </row>
     <row r="281" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
@@ -8637,13 +8756,13 @@
       <c r="G281" s="4">
         <v>1</v>
       </c>
-      <c r="H281" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I281" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="J281" s="15"/>
+      <c r="H281" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I281" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="J281" s="14"/>
     </row>
     <row r="282" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
@@ -8667,13 +8786,13 @@
       <c r="G282" s="4">
         <v>7</v>
       </c>
-      <c r="H282" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I282" s="15" t="s">
+      <c r="H282" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I282" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="J282" s="15"/>
+      <c r="J282" s="14"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
@@ -8693,9 +8812,9 @@
       <c r="G283" s="4">
         <v>1</v>
       </c>
-      <c r="H283" s="13"/>
-      <c r="I283" s="15"/>
-      <c r="J283" s="15"/>
+      <c r="H283" s="12"/>
+      <c r="I283" s="14"/>
+      <c r="J283" s="14"/>
     </row>
     <row r="284" spans="1:10" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
@@ -8719,13 +8838,13 @@
       <c r="G284" s="4">
         <v>5</v>
       </c>
-      <c r="H284" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I284" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="J284" s="15"/>
+      <c r="H284" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I284" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="J284" s="14"/>
     </row>
     <row r="285" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
@@ -8745,61 +8864,61 @@
       <c r="G285" s="4">
         <v>2</v>
       </c>
-      <c r="H285" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I285" s="5" t="s">
+      <c r="H285" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I285" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="J285" s="15"/>
+      <c r="J285" s="14"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
+      <c r="A286" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C286" s="10" t="s">
+      <c r="C286" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D286" s="10" t="s">
+      <c r="D286" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E286" s="10"/>
-      <c r="F286" s="10"/>
-      <c r="G286" s="11">
-        <v>1</v>
-      </c>
-      <c r="H286" s="17"/>
-      <c r="I286" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="J286" s="15"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="10">
+        <v>1</v>
+      </c>
+      <c r="H286" s="16"/>
+      <c r="I286" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="J286" s="14"/>
     </row>
     <row r="287" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A287" s="10" t="s">
+      <c r="A287" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C287" s="10" t="s">
+      <c r="C287" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D287" s="10" t="s">
+      <c r="D287" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E287" s="10"/>
-      <c r="F287" s="10"/>
-      <c r="G287" s="11">
-        <v>1</v>
-      </c>
-      <c r="H287" s="17"/>
-      <c r="I287" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="J287" s="15"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="10">
+        <v>1</v>
+      </c>
+      <c r="H287" s="16"/>
+      <c r="I287" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="J287" s="14"/>
     </row>
     <row r="288" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
@@ -8819,13 +8938,13 @@
       <c r="G288" s="4">
         <v>2</v>
       </c>
-      <c r="H288" s="13" t="s">
+      <c r="H288" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I288" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="J288" s="15"/>
+      <c r="I288" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="J288" s="14"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
@@ -8845,11 +8964,11 @@
       <c r="G289" s="4">
         <v>2</v>
       </c>
-      <c r="H289" s="13"/>
+      <c r="H289" s="12"/>
       <c r="I289" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J289" s="15"/>
+      <c r="J289" s="14"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
@@ -8869,11 +8988,11 @@
       <c r="G290" s="4">
         <v>4</v>
       </c>
-      <c r="H290" s="13"/>
+      <c r="H290" s="12"/>
       <c r="I290" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J290" s="15"/>
+      <c r="J290" s="14"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
@@ -8893,11 +9012,11 @@
       <c r="G291" s="4">
         <v>21</v>
       </c>
-      <c r="H291" s="13"/>
+      <c r="H291" s="12"/>
       <c r="I291" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J291" s="15"/>
+      <c r="J291" s="14"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
@@ -8917,11 +9036,11 @@
       <c r="G292" s="4">
         <v>20</v>
       </c>
-      <c r="H292" s="13"/>
+      <c r="H292" s="12"/>
       <c r="I292" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J292" s="15"/>
+      <c r="J292" s="14"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
@@ -8941,11 +9060,11 @@
       <c r="G293" s="4">
         <v>2</v>
       </c>
-      <c r="H293" s="13"/>
+      <c r="H293" s="12"/>
       <c r="I293" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J293" s="15"/>
+      <c r="J293" s="14"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
@@ -8965,11 +9084,11 @@
       <c r="G294" s="4">
         <v>1</v>
       </c>
-      <c r="H294" s="13"/>
+      <c r="H294" s="12"/>
       <c r="I294" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J294" s="15"/>
+      <c r="J294" s="14"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
@@ -8989,11 +9108,11 @@
       <c r="G295" s="4">
         <v>1</v>
       </c>
-      <c r="H295" s="13"/>
+      <c r="H295" s="12"/>
       <c r="I295" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J295" s="15"/>
+      <c r="J295" s="14"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
@@ -9013,11 +9132,11 @@
       <c r="G296" s="4">
         <v>648</v>
       </c>
-      <c r="H296" s="13"/>
+      <c r="H296" s="12"/>
       <c r="I296" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="J296" s="15"/>
+      <c r="J296" s="14"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
@@ -9032,22 +9151,22 @@
       <c r="D297" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="E297" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="F297" s="2" t="s">
+      <c r="F297" s="35" t="s">
         <v>332</v>
       </c>
       <c r="G297" s="4">
         <v>1</v>
       </c>
-      <c r="H297" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I297" s="5" t="s">
+      <c r="H297" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I297" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="J297" s="15"/>
+      <c r="J297" s="14"/>
     </row>
     <row r="298" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
@@ -9062,22 +9181,22 @@
       <c r="D298" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E298" s="2" t="s">
+      <c r="E298" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="F298" s="2" t="s">
+      <c r="F298" s="35" t="s">
         <v>332</v>
       </c>
       <c r="G298" s="4">
         <v>3</v>
       </c>
-      <c r="H298" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="I298" s="5" t="s">
+      <c r="H298" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="I298" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="J298" s="15"/>
+      <c r="J298" s="14"/>
     </row>
     <row r="299" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
@@ -9107,7 +9226,7 @@
       <c r="I299" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J299" s="15"/>
+      <c r="J299" s="14"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
@@ -9131,13 +9250,13 @@
       <c r="G300" s="4">
         <v>17</v>
       </c>
-      <c r="H300" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I300" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="J300" s="15"/>
+      <c r="H300" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I300" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="J300" s="14"/>
     </row>
     <row r="301" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
@@ -9161,13 +9280,13 @@
       <c r="G301" s="4">
         <v>1</v>
       </c>
-      <c r="H301" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="I301" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="J301" s="15"/>
+      <c r="H301" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="I301" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="J301" s="14"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
@@ -9187,9 +9306,9 @@
       <c r="G302" s="4">
         <v>291</v>
       </c>
-      <c r="H302" s="13"/>
-      <c r="I302" s="15"/>
-      <c r="J302" s="15"/>
+      <c r="H302" s="12"/>
+      <c r="I302" s="14"/>
+      <c r="J302" s="14"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
@@ -9209,9 +9328,9 @@
       <c r="G303" s="4">
         <v>1</v>
       </c>
-      <c r="H303" s="13"/>
-      <c r="I303" s="15"/>
-      <c r="J303" s="15"/>
+      <c r="H303" s="12"/>
+      <c r="I303" s="14"/>
+      <c r="J303" s="14"/>
     </row>
     <row r="304" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
@@ -9233,13 +9352,13 @@
       <c r="G304" s="4">
         <v>1</v>
       </c>
-      <c r="H304" s="13" t="s">
+      <c r="H304" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I304" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="J304" s="15"/>
+      <c r="I304" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="J304" s="14"/>
     </row>
     <row r="305" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
@@ -9259,11 +9378,11 @@
       <c r="G305" s="4">
         <v>669</v>
       </c>
-      <c r="H305" s="13"/>
+      <c r="H305" s="12"/>
       <c r="I305" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J305" s="15"/>
+      <c r="J305" s="14"/>
     </row>
     <row r="306" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
@@ -9283,11 +9402,11 @@
       <c r="G306" s="4">
         <v>97</v>
       </c>
-      <c r="H306" s="13"/>
+      <c r="H306" s="12"/>
       <c r="I306" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J306" s="15"/>
+      <c r="J306" s="14"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
@@ -9307,9 +9426,9 @@
       <c r="G307" s="4">
         <v>86</v>
       </c>
-      <c r="H307" s="13"/>
-      <c r="I307" s="15"/>
-      <c r="J307" s="15"/>
+      <c r="H307" s="12"/>
+      <c r="I307" s="14"/>
+      <c r="J307" s="14"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
@@ -9327,11 +9446,11 @@
       <c r="G308" s="4">
         <v>14</v>
       </c>
-      <c r="H308" s="13"/>
-      <c r="I308" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="J308" s="15"/>
+      <c r="H308" s="12"/>
+      <c r="I308" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="J308" s="14"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
@@ -9351,161 +9470,161 @@
       <c r="G309" s="4">
         <v>63</v>
       </c>
-      <c r="H309" s="13"/>
-      <c r="I309" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="J309" s="15"/>
+      <c r="H309" s="12"/>
+      <c r="I309" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="J309" s="14"/>
     </row>
     <row r="310" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A310" s="10" t="s">
+      <c r="A310" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C310" s="10" t="s">
+      <c r="C310" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D310" s="10" t="s">
+      <c r="D310" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E310" s="10" t="s">
+      <c r="E310" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F310" s="10" t="s">
+      <c r="F310" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G310" s="11">
+      <c r="G310" s="10">
         <v>53</v>
       </c>
-      <c r="H310" s="19" t="s">
+      <c r="H310" s="18" t="s">
         <v>375</v>
       </c>
       <c r="I310" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J310" s="15"/>
+      <c r="J310" s="14"/>
     </row>
     <row r="311" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C311" s="10" t="s">
+      <c r="C311" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D311" s="10" t="s">
+      <c r="D311" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E311" s="10" t="s">
+      <c r="E311" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F311" s="10" t="s">
+      <c r="F311" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G311" s="11">
+      <c r="G311" s="10">
         <v>3</v>
       </c>
-      <c r="H311" s="19" t="s">
+      <c r="H311" s="18" t="s">
         <v>375</v>
       </c>
       <c r="I311" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J311" s="15"/>
+      <c r="J311" s="14"/>
     </row>
     <row r="312" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
+      <c r="A312" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="C312" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D312" s="10" t="s">
+      <c r="D312" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E312" s="10" t="s">
+      <c r="E312" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F312" s="10" t="s">
+      <c r="F312" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G312" s="11">
+      <c r="G312" s="10">
         <v>2</v>
       </c>
-      <c r="H312" s="19" t="s">
+      <c r="H312" s="18" t="s">
         <v>375</v>
       </c>
       <c r="I312" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J312" s="15"/>
+      <c r="J312" s="14"/>
     </row>
     <row r="313" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A313" s="10" t="s">
+      <c r="A313" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C313" s="10" t="s">
+      <c r="C313" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D313" s="10" t="s">
+      <c r="D313" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E313" s="10" t="s">
+      <c r="E313" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F313" s="10" t="s">
+      <c r="F313" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G313" s="11">
+      <c r="G313" s="10">
         <v>35</v>
       </c>
-      <c r="H313" s="19" t="s">
+      <c r="H313" s="18" t="s">
         <v>375</v>
       </c>
       <c r="I313" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J313" s="15"/>
+      <c r="J313" s="14"/>
     </row>
     <row r="314" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A314" s="10" t="s">
+      <c r="A314" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C314" s="10" t="s">
+      <c r="C314" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D314" s="10" t="s">
+      <c r="D314" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E314" s="10" t="s">
+      <c r="E314" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F314" s="10" t="s">
+      <c r="F314" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G314" s="11">
-        <v>1</v>
-      </c>
-      <c r="H314" s="19" t="s">
+      <c r="G314" s="10">
+        <v>1</v>
+      </c>
+      <c r="H314" s="18" t="s">
         <v>375</v>
       </c>
       <c r="I314" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="J314" s="15"/>
+      <c r="J314" s="14"/>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
@@ -9525,9 +9644,9 @@
       <c r="G315" s="4">
         <v>1</v>
       </c>
-      <c r="H315" s="13"/>
-      <c r="I315" s="15"/>
-      <c r="J315" s="15"/>
+      <c r="H315" s="12"/>
+      <c r="I315" s="14"/>
+      <c r="J315" s="14"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
@@ -9547,9 +9666,9 @@
       <c r="G316" s="4">
         <v>4</v>
       </c>
-      <c r="H316" s="13"/>
-      <c r="I316" s="15"/>
-      <c r="J316" s="15"/>
+      <c r="H316" s="12"/>
+      <c r="I316" s="14"/>
+      <c r="J316" s="14"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
@@ -9569,9 +9688,9 @@
       <c r="G317" s="4">
         <v>1</v>
       </c>
-      <c r="H317" s="13"/>
-      <c r="I317" s="15"/>
-      <c r="J317" s="15"/>
+      <c r="H317" s="12"/>
+      <c r="I317" s="14"/>
+      <c r="J317" s="14"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
@@ -9591,9 +9710,9 @@
       <c r="G318" s="4">
         <v>96</v>
       </c>
-      <c r="H318" s="13"/>
-      <c r="I318" s="15"/>
-      <c r="J318" s="15"/>
+      <c r="H318" s="12"/>
+      <c r="I318" s="14"/>
+      <c r="J318" s="14"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
@@ -9613,9 +9732,9 @@
       <c r="G319" s="4">
         <v>361</v>
       </c>
-      <c r="H319" s="13"/>
-      <c r="I319" s="15"/>
-      <c r="J319" s="15"/>
+      <c r="H319" s="12"/>
+      <c r="I319" s="14"/>
+      <c r="J319" s="14"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
@@ -9635,9 +9754,9 @@
       <c r="G320" s="4">
         <v>2142</v>
       </c>
-      <c r="H320" s="13"/>
-      <c r="I320" s="15"/>
-      <c r="J320" s="15"/>
+      <c r="H320" s="12"/>
+      <c r="I320" s="14"/>
+      <c r="J320" s="14"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
@@ -9657,9 +9776,9 @@
       <c r="G321" s="4">
         <v>395</v>
       </c>
-      <c r="H321" s="13"/>
-      <c r="I321" s="15"/>
-      <c r="J321" s="15"/>
+      <c r="H321" s="12"/>
+      <c r="I321" s="14"/>
+      <c r="J321" s="14"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
@@ -9679,9 +9798,9 @@
       <c r="G322" s="4">
         <v>13</v>
       </c>
-      <c r="H322" s="13"/>
-      <c r="I322" s="15"/>
-      <c r="J322" s="15"/>
+      <c r="H322" s="12"/>
+      <c r="I322" s="14"/>
+      <c r="J322" s="14"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
@@ -9701,9 +9820,9 @@
       <c r="G323" s="4">
         <v>4</v>
       </c>
-      <c r="H323" s="13"/>
-      <c r="I323" s="15"/>
-      <c r="J323" s="15"/>
+      <c r="H323" s="12"/>
+      <c r="I323" s="14"/>
+      <c r="J323" s="14"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
@@ -9723,9 +9842,9 @@
       <c r="G324" s="4">
         <v>4355</v>
       </c>
-      <c r="H324" s="13"/>
-      <c r="I324" s="15"/>
-      <c r="J324" s="15"/>
+      <c r="H324" s="12"/>
+      <c r="I324" s="14"/>
+      <c r="J324" s="14"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
@@ -9745,9 +9864,9 @@
       <c r="G325" s="4">
         <v>11</v>
       </c>
-      <c r="H325" s="13"/>
-      <c r="I325" s="15"/>
-      <c r="J325" s="15"/>
+      <c r="H325" s="12"/>
+      <c r="I325" s="14"/>
+      <c r="J325" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H325" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -9758,10 +9877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F86CBE2-116C-4192-AF22-CB2EA1AFCA3A}">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9770,225 +9889,325 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1" t="s">
         <v>438</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="37">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="37">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="37"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="39">
+        <v>1</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="B13" s="37"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="B14" s="37"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="B15" s="37">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="37"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="B17" s="38"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="B18" s="37"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="B19" s="37"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="B20" s="37">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="B22" s="38"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="B23" s="37"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="B24" s="37"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="B25" s="37"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="B26" s="37"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="B27" s="37">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="B28" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="B29" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="B30" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="B31" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="B32" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="B33" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">

--- a/documentation/Metadata Form, Item Type, Subjects.xlsx
+++ b/documentation/Metadata Form, Item Type, Subjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\British Library\bl github group\bl_github_clones\idp-data-issues\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F752A9-A35E-4BD7-A1CB-AD4D6CB230B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D0330A-CBDC-4EDA-96A8-057AC7AF1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="7908" windowWidth="19800" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2412" yWindow="6552" windowWidth="19800" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORM" sheetId="1" r:id="rId1"/>
@@ -2216,7 +2216,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>18</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>21</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="69" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>45</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>77</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
     </row>
-    <row r="72" spans="1:10" ht="69" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>104</v>
       </c>

--- a/documentation/Metadata Form, Item Type, Subjects.xlsx
+++ b/documentation/Metadata Form, Item Type, Subjects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\British Library\bl github group\bl_github_clones\idp-data-issues\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D0330A-CBDC-4EDA-96A8-057AC7AF1E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DBB15-4F53-4CE4-B9A5-9D9D932A05EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="6552" windowWidth="19800" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="780" windowWidth="24396" windowHeight="18888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FORM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="462">
   <si>
     <t>English</t>
   </si>
@@ -1440,6 +1440,9 @@
       </rPr>
       <t xml:space="preserve"> SOLUTION: these Images records use Externally_Linked_Image = TRUE which means the URL is provided by the [Images]Linked_Image_URL (for large or medium) or (for thumbnail) AND OUR JPG API DOES NOT DEAL WITH THIS CASE (even if the non-existent db site id could be handled!)</t>
     </r>
+  </si>
+  <si>
+    <t>Berlin. JC: to what column does 'Type of Artefact' correspond?</t>
   </si>
 </sst>
 </file>
@@ -2069,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2531,7 +2534,7 @@
         <v>378</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
